--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2077.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2077.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158966219052293</v>
+        <v>1.398804783821106</v>
       </c>
       <c r="B1">
-        <v>3.437585401741805</v>
+        <v>3.847963809967041</v>
       </c>
       <c r="C1">
-        <v>3.833373440033678</v>
+        <v>3.389320850372314</v>
       </c>
       <c r="D1">
-        <v>3.483279997683006</v>
+        <v>3.649279117584229</v>
       </c>
       <c r="E1">
-        <v>1.185104421693245</v>
+        <v>1.300790548324585</v>
       </c>
     </row>
   </sheetData>
